--- a/homework/05-06-test-design/device-api-testsuite.xlsx
+++ b/homework/05-06-test-design/device-api-testsuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696AE140-CFB7-462A-8C9E-75F8D07D2E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB835D4-4053-4A7D-A0D7-0F54D499A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,19 +33,25 @@
     <sheet name="tc14" sheetId="20" r:id="rId18"/>
     <sheet name="tc15" sheetId="21" r:id="rId19"/>
     <sheet name="tc16" sheetId="22" r:id="rId20"/>
-    <sheet name="Data4" sheetId="23" r:id="rId21"/>
-    <sheet name="tc17" sheetId="33" r:id="rId22"/>
-    <sheet name="tc18" sheetId="34" r:id="rId23"/>
-    <sheet name="tc19" sheetId="25" r:id="rId24"/>
-    <sheet name="tc20" sheetId="26" r:id="rId25"/>
-    <sheet name="tc21" sheetId="31" r:id="rId26"/>
-    <sheet name="tc22" sheetId="32" r:id="rId27"/>
-    <sheet name="tc23" sheetId="35" r:id="rId28"/>
-    <sheet name="tc24" sheetId="37" r:id="rId29"/>
-    <sheet name="tc25" sheetId="38" r:id="rId30"/>
-    <sheet name="Data5" sheetId="27" r:id="rId31"/>
-    <sheet name="tc26" sheetId="39" r:id="rId32"/>
-    <sheet name="tc27" sheetId="41" r:id="rId33"/>
+    <sheet name="tc17" sheetId="42" r:id="rId21"/>
+    <sheet name="tc18" sheetId="43" r:id="rId22"/>
+    <sheet name="tc19" sheetId="44" r:id="rId23"/>
+    <sheet name="Data4" sheetId="23" r:id="rId24"/>
+    <sheet name="tc20" sheetId="33" r:id="rId25"/>
+    <sheet name="tc21" sheetId="34" r:id="rId26"/>
+    <sheet name="tc22" sheetId="25" r:id="rId27"/>
+    <sheet name="tc23" sheetId="26" r:id="rId28"/>
+    <sheet name="tc24" sheetId="31" r:id="rId29"/>
+    <sheet name="tc25" sheetId="32" r:id="rId30"/>
+    <sheet name="tc26" sheetId="45" r:id="rId31"/>
+    <sheet name="tc27" sheetId="46" r:id="rId32"/>
+    <sheet name="tc28" sheetId="47" r:id="rId33"/>
+    <sheet name="tc29" sheetId="35" r:id="rId34"/>
+    <sheet name="tc30" sheetId="37" r:id="rId35"/>
+    <sheet name="tc31" sheetId="38" r:id="rId36"/>
+    <sheet name="Data5" sheetId="27" r:id="rId37"/>
+    <sheet name="tc32" sheetId="39" r:id="rId38"/>
+    <sheet name="tc33" sheetId="41" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +63,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="118">
   <si>
     <t>device-api</t>
   </si>
@@ -1402,12 +1407,85 @@
   <si>
     <t>Response from database must be empty</t>
   </si>
+  <si>
+    <t>Back to CaseList</t>
+  </si>
+  <si>
+    <t>Modified device can be removed</t>
+  </si>
+  <si>
+    <t>Double removal</t>
+  </si>
+  <si>
+    <t>Created device can be removed</t>
+  </si>
+  <si>
+    <t>Created device can be modified</t>
+  </si>
+  <si>
+    <t>Double change</t>
+  </si>
+  <si>
+    <t>Removed device can't be modified</t>
+  </si>
+  <si>
+    <t>1) make a 'POST' request with correct data ('test values')
+2) take "deviceId" from response
+3) make a 'DELETE' request with correct data ('deviceId')
+4) take "found" from response</t>
+  </si>
+  <si>
+    <t>"deviceId": &lt;any existing device ID&gt;
+"platform": "ChromeOS",
+"userId": "45677"</t>
+  </si>
+  <si>
+    <t>1) make a 'PUT' request with correct data ('test values')
+2) make a 'DELETE' request with correct data ('deviceId')
+34) take "found" from response</t>
+  </si>
+  <si>
+    <t>The field "found" is "false"</t>
+  </si>
+  <si>
+    <t>"platform": "FreeBSD",
+"userId": "007"</t>
+  </si>
+  <si>
+    <t>1) make a 'POST' request with
+"platform": "SlaveBSD",
+"userId": "777"
+2) take "deviceId" from response
+3) make a 'PUT' request with correct data ('test values')
+4) take "success" from response</t>
+  </si>
+  <si>
+    <t>"platform": "Linux",
+"userId": "56843"</t>
+  </si>
+  <si>
+    <t>1) make a 'PUT' request with
+"deviceId": &lt;any existing device ID&gt;
+"platform": "Windows",
+"userId": "98567"
+2) make a 'PUT' request with correct data ('test values')
+3) take "success" from response</t>
+  </si>
+  <si>
+    <t>"platform": "MacOS",
+"userId": "10101"</t>
+  </si>
+  <si>
+    <t>1) make a 'DELETE' request with "deviceId": &lt;any existing device ID&gt;
+1) make a 'PUT' request with correct data ('test values').
+2) take "success" from response</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +1575,15 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Franklin Gothic Medium"/>
@@ -1598,7 +1685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1689,6 +1776,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1992,10 +2085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2003,8 +2096,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2173,113 +2266,167 @@
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>17</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>18</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>17</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
-        <v>18</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>21</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
-        <v>19</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <v>22</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
-        <v>20</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>23</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>21</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>24</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
-        <v>22</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>25</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>23</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
-        <v>24</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="27">
-        <v>25</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>64</v>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>26</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>26</v>
-      </c>
-      <c r="B33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>28</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>29</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>30</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="21"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="28">
+        <v>31</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>32</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>27</v>
-      </c>
-      <c r="B34" s="22" t="s">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="28">
+        <v>33</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2305,17 +2452,23 @@
     <hyperlink ref="B19" location="'tc15'!A1" display="Response for positive testing returns &quot;found&quot;: true" xr:uid="{2D7A935C-49BB-4E19-9DD5-6DCD69FDDD49}"/>
     <hyperlink ref="B20" location="'tc16'!A1" display="Unable to remove non-existent device (&quot;found&quot;: false)" xr:uid="{4210E1E9-7B5D-4FAE-9920-564F32BED1EB}"/>
     <hyperlink ref="B21" location="'tc17'!A1" display="Number of devices don't changed after a failed delete attempt" xr:uid="{E6C1072C-A0AB-41FB-BE78-4BC7055DCD21}"/>
-    <hyperlink ref="B30" location="'tc25'!A1" display="Testing valid size of data type for the field &quot;platform&quot; [ Update a device ]" xr:uid="{B97BA3E5-4EA8-4D5E-96DE-4A73ABD7E6C1}"/>
-    <hyperlink ref="B31" location="'tc26'!A1" display="Testing valid size of data type for the field &quot;userId&quot; [ Update a device ]" xr:uid="{8B8367AB-F2C1-4056-8983-EBCB6F639819}"/>
-    <hyperlink ref="B23" location="'tc18'!A1" display="Status code is correct [ Update a device ]" xr:uid="{C28849F8-59CA-4CA9-8931-EC0D1E54D918}"/>
-    <hyperlink ref="B24" location="'tc19'!A1" display="Response body structure is correct [ Update a device ]" xr:uid="{282A3137-06EF-4CCC-AD9C-6E0D8D17D937}"/>
-    <hyperlink ref="B25" location="'tc20'!A1" display="Device can be changed in database" xr:uid="{C4265B72-9AB2-4758-BCD1-CD7F3D684BA7}"/>
-    <hyperlink ref="B26" location="'tc21'!A1" display="Response for positive testing  returns &quot;success&quot;: true" xr:uid="{D5E19ACD-DAAC-4A7D-A8A6-BE7B076605D2}"/>
-    <hyperlink ref="B27" location="'tc22'!A1" display="Unable to edit non-existent device (&quot;success&quot;: false)" xr:uid="{339AFFEA-83E9-4C0A-86A8-8FC1AB3D0B24}"/>
-    <hyperlink ref="B28" location="'tc23'!A1" display="‘enteredAt’ field has not changed" xr:uid="{3ACB11BB-ED07-4510-922C-2DACA5C4B89A}"/>
-    <hyperlink ref="B29" location="'tc24'!A1" display="Custom parameters ‘id’ and ‘enteredAt’ [ Update a device ]" xr:uid="{0DBC2AAB-0A6D-4429-9830-5337A4101D24}"/>
-    <hyperlink ref="B33" location="'tc27'!A1" display="Status code is correct [ List of devices ]" xr:uid="{5BD2B770-0168-4F3D-BD48-EC1138FF6F70}"/>
-    <hyperlink ref="B34" location="'tc27'!A1" display="Response body structure is correct [ List of devices ]" xr:uid="{513A2839-EB80-4177-9030-CA0633C97586}"/>
+    <hyperlink ref="B36" location="'tc25'!A1" display="Testing valid size of data type for the field &quot;platform&quot; [ Update a device ]" xr:uid="{B97BA3E5-4EA8-4D5E-96DE-4A73ABD7E6C1}"/>
+    <hyperlink ref="B37" location="'tc26'!A1" display="Testing valid size of data type for the field &quot;userId&quot; [ Update a device ]" xr:uid="{8B8367AB-F2C1-4056-8983-EBCB6F639819}"/>
+    <hyperlink ref="B26" location="'tc18'!A1" display="Status code is correct [ Update a device ]" xr:uid="{C28849F8-59CA-4CA9-8931-EC0D1E54D918}"/>
+    <hyperlink ref="B27" location="'tc19'!A1" display="Response body structure is correct [ Update a device ]" xr:uid="{282A3137-06EF-4CCC-AD9C-6E0D8D17D937}"/>
+    <hyperlink ref="B28" location="'tc20'!A1" display="Device can be changed in database" xr:uid="{C4265B72-9AB2-4758-BCD1-CD7F3D684BA7}"/>
+    <hyperlink ref="B29" location="'tc21'!A1" display="Response for positive testing  returns &quot;success&quot;: true" xr:uid="{D5E19ACD-DAAC-4A7D-A8A6-BE7B076605D2}"/>
+    <hyperlink ref="B30" location="'tc22'!A1" display="Unable to edit non-existent device (&quot;success&quot;: false)" xr:uid="{339AFFEA-83E9-4C0A-86A8-8FC1AB3D0B24}"/>
+    <hyperlink ref="B31" location="'tc23'!A1" display="‘enteredAt’ field has not changed" xr:uid="{3ACB11BB-ED07-4510-922C-2DACA5C4B89A}"/>
+    <hyperlink ref="B35" location="'tc24'!A1" display="Custom parameters ‘id’ and ‘enteredAt’ [ Update a device ]" xr:uid="{0DBC2AAB-0A6D-4429-9830-5337A4101D24}"/>
+    <hyperlink ref="B39" location="'tc27'!A1" display="Status code is correct [ List of devices ]" xr:uid="{5BD2B770-0168-4F3D-BD48-EC1138FF6F70}"/>
+    <hyperlink ref="B40" location="'tc27'!A1" display="Response body structure is correct [ List of devices ]" xr:uid="{513A2839-EB80-4177-9030-CA0633C97586}"/>
+    <hyperlink ref="B22" location="'tc17'!A1" display="Created device can be removed" xr:uid="{91861B4F-0E2A-4A56-A37E-A13724F44A20}"/>
+    <hyperlink ref="B23" location="'tc18'!A1" display="Modified device can be removed" xr:uid="{7390A874-22B0-4D2E-B4F1-CE71298AE202}"/>
+    <hyperlink ref="B24" location="'tc19'!A1" display="Double removal" xr:uid="{836A90A1-B59C-4C5D-B69E-E00B188E9324}"/>
+    <hyperlink ref="B32" location="'tc26'!A1" display="Created device can be modified" xr:uid="{3A9F5E00-7AD6-4889-BC8E-E3F74FAD8C56}"/>
+    <hyperlink ref="B33" location="'tc27'!A1" display="Double change" xr:uid="{62CAA88F-B385-4D7F-832F-605FDE686886}"/>
+    <hyperlink ref="B34" location="'tc28'!A1" display="Removed device can't be modified" xr:uid="{B51FF07E-69E7-4C8E-855D-6EFEFFB720E6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2324,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A7FB6A-49CA-494C-A910-1FC7D143C71D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,16 +2497,26 @@
         <v>96</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="TestSuite!A1" display="Back to CaseList" xr:uid="{E788E22C-7A57-47D5-987C-024475086B82}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FDC01-0AF4-4EF7-97CD-EB43E628A2DC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2424,7 +2587,15 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{2B3ADA9D-8DC3-47D7-A59C-987D7462F3B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2433,7 +2604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B6F71-F1D3-4745-8154-2AC048A4F08F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2504,21 +2677,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{77B8DB69-8984-4599-8C98-D4FEE46B1894}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5EABC-60BF-4FEE-B215-15B2464559D4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2589,14 +2772,648 @@
         <v>98</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{E5400C08-F048-4F56-8FFD-4EA522138704}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D80BA2-EDA4-4DEE-AFDE-B9B26D302347}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="189.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="TestSuite!A1" display="Back to CaseList" xr:uid="{ED997035-4D72-491D-BAF7-AA16F291FFA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90D73EF-AF4A-4A76-8440-2EADDEA16690}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{4CC8929B-7CE4-4C80-AF99-712E0B08F4EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDCCA49-F6D4-43F7-BDE3-F955F1274CAC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{233B943B-F27F-4077-8F7E-7B82405F08A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877DCD4F-FB39-41A8-AEED-D69AE7A881EC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{9F6598E4-AA1B-4DC8-AEF4-18EA36777A16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA96CF-EAA7-499A-B2E1-229F4080624F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{80DE9868-E38D-41E6-B79B-93E3701BE393}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FF1AC3-0B64-4D03-AAA1-980CBA828BB8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{C1BD4E7D-64B7-4E7D-8C0A-D9CFEB8DAA3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E5486-17E4-48AE-B0E4-29F414CE782A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="205.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" location="TestSuite!A1" display="Back to CaseList" xr:uid="{273A4DF4-2068-42CE-A58E-BF1698FDCC3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E930BD6B-94D8-43D0-B56B-D5AD83B44A5A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{49AB1052-422E-47DE-8916-0F5CB1CDF04F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24739075-4EAB-47EC-BC08-C89618A90126}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2608,25 +3425,85 @@
     <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="189.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>99</v>
+      <c r="B3" s="16" t="str">
+        <f>Data3!B1</f>
+        <v>Checking function "Remove a device" 
+Method: DELETE
+Recource: /api/v1/devices/{deviceId}
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"deviceId" &lt;string($uint64)&gt;
+Response data:
+"found" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{70740F6D-4E75-410F-AE06-F8CF17DB084B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90D73EF-AF4A-4A76-8440-2EADDEA16690}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C46248-A328-4DC7-A929-B1D7581B7918}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,19 +3513,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
@@ -2671,40 +3548,51 @@
 "found" &lt;boolean&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{A3D3530E-DB79-4EEF-BEFE-D37B8D6F134B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDCCA49-F6D4-43F7-BDE3-F955F1274CAC}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1D4FB-AC19-4540-851F-F0F571D04C18}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2713,19 +3601,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
@@ -2756,264 +3644,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>50</v>
+      <c r="B5" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>28</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{E76F614A-4E0D-46B7-82FB-95A8A58DD968}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877DCD4F-FB39-41A8-AEED-D69AE7A881EC}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data3!B1</f>
-        <v>Checking function "Remove a device" 
-Method: DELETE
-Recource: /api/v1/devices/{deviceId}
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"deviceId" &lt;string($uint64)&gt;
-Response data:
-"found" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA96CF-EAA7-499A-B2E1-229F4080624F}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data3!B1</f>
-        <v>Checking function "Remove a device" 
-Method: DELETE
-Recource: /api/v1/devices/{deviceId}
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"deviceId" &lt;string($uint64)&gt;
-Response data:
-"found" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FF1AC3-0B64-4D03-AAA1-980CBA828BB8}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data3!B1</f>
-        <v>Checking function "Remove a device" 
-Method: DELETE
-Recource: /api/v1/devices/{deviceId}
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"deviceId" &lt;string($uint64)&gt;
-Response data:
-"found" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E5486-17E4-48AE-B0E4-29F414CE782A}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265CD56-6721-41C0-B122-69B5E1419CB6}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,130 +3692,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="TestSuite!A1" display="Back to CaseList" xr:uid="{8064BD2B-8E16-4632-B8C4-2ED0CE5D5D31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E930BD6B-94D8-43D0-B56B-D5AD83B44A5A}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="189" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data3!B1</f>
-        <v>Checking function "Remove a device" 
-Method: DELETE
-Recource: /api/v1/devices/{deviceId}
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"deviceId" &lt;string($uint64)&gt;
-Response data:
-"found" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265CD56-6721-41C0-B122-69B5E1419CB6}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A27D28-F041-40B0-9275-279C3999CA5E}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3162,24 +3722,87 @@
     <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="205.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>56</v>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{5FBA1410-B102-45FB-AF4E-9D6DC346477B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A27D28-F041-40B0-9275-279C3999CA5E}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BD517-F4CA-4A3C-9AC2-5D2173293A7F}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3192,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -3200,7 +3823,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -3229,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3237,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3245,19 +3868,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{D03989BA-4A4F-4206-81BE-606A47BC95F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BD517-F4CA-4A3C-9AC2-5D2173293A7F}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0082B5EB-2522-48B2-B535-506601348EB4}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3270,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -3278,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -3307,15 +3940,15 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3323,19 +3956,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{C3A0A71B-A12C-4950-AE53-8871282E0278}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0082B5EB-2522-48B2-B535-506601348EB4}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F1FCD4-A864-4456-85F6-575C75DC3248}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3348,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -3356,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -3385,15 +4028,15 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3401,19 +4044,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{50D8570B-FA27-4F51-9F34-0BF8B649BD78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F1FCD4-A864-4456-85F6-575C75DC3248}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32411D9C-BBAA-4E1C-94A8-A62533280B40}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3426,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -3434,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -3463,7 +4116,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3479,322 +4132,18 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32411D9C-BBAA-4E1C-94A8-A62533280B40}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data4!B1</f>
-        <v>Checking function "Update a device" 
-Method: PUT
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"success" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8311BE2A-7E1A-4A6E-8DE6-D620126F0A83}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data4!B1</f>
-        <v>Checking function "Update a device" 
-Method: PUT
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"success" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F0244-1188-42E8-9253-38C636FF8B74}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data4!B1</f>
-        <v>Checking function "Update a device" 
-Method: PUT
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"success" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77346597-505B-4E88-AA40-1136EC47B3AB}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="93.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data4!B1</f>
-        <v>Checking function "Update a device" 
-Method: PUT
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"success" &lt;boolean&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{70FD3F77-13FC-4EE4-85FB-70E43B59ECA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3804,7 +4153,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,6 +4228,9 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -3897,16 +4249,461 @@
       <c r="A12" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{8849BA4F-0604-4CA2-8BFE-774682CFE3E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D7DEB-7840-481E-B094-86C090DA7AAB}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8311BE2A-7E1A-4A6E-8DE6-D620126F0A83}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{6BD13429-2438-4083-BACA-464939E3E8CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB2D459-5B7A-46C0-A455-215593F1E87E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{D1527F6C-0885-4824-98FB-D90F247D0A84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02C241B-9400-4539-9641-492D94F1F20E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{5406B546-E704-420D-955E-8E0CFB4BAAA6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833982B2-4032-4219-AE63-D70D8B446E06}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{3E78FC99-5581-48B7-B7BD-A86BF6CAD72D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F0244-1188-42E8-9253-38C636FF8B74}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{72ABF6C6-721D-4CDA-BAC4-E05173494079}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77346597-505B-4E88-AA40-1136EC47B3AB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3919,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -3927,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -3951,12 +4748,12 @@
 "success" &lt;boolean&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>87</v>
+      <c r="B4" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3964,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3975,14 +4772,419 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{47C03331-EB0E-41DF-B007-69D323F0DBC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D7DEB-7840-481E-B094-86C090DA7AAB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data4!B1</f>
+        <v>Checking function "Update a device" 
+Method: PUT
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"success" &lt;boolean&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{B4B19E64-7E69-449F-92F9-A80CCE4F17B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C87B00-FEE9-48C3-9E6C-C2C6C20F9270}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="284.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="TestSuite!A1" display="Back to CaseList" xr:uid="{60C5FBE7-6EBC-408B-A7F9-DB0157097B34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A1D69-DDF0-4D00-8A24-501C81078B64}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{B39D1EC5-4D21-4A2A-8414-AC97B8945C84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A745DF-1837-42F6-8992-CE778D1E1DF4}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{54CE2FE9-7B5D-4CCD-97E5-56DEAE92A878}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D9F5A3-0037-4891-A995-C66C14875AEC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data1!B1</f>
+        <v>Checking function "Create a device" 
+Method: POST
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"deviceId" &lt;string($uint64)&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{0AB3F28D-9E0F-4409-986F-420A650492E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0A9A0-A9F3-481E-BCA0-E4D942B7B9DE}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -3994,190 +5196,88 @@
     <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="284.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>88</v>
+      <c r="B3" s="16" t="str">
+        <f>Data1!B1</f>
+        <v>Checking function "Create a device" 
+Method: POST
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+Response data:
+"deviceId" &lt;string($uint64)&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{AF959D21-EDE6-41B1-B86C-BF59B799AB01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A1D69-DDF0-4D00-8A24-501C81078B64}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C91652-6C12-446B-860F-9C4BB824D468}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data5!B1</f>
-        <v>Checking function "List of devices" 
-Method: GET
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-page &lt;string($uint64)&gt;
-perPage &lt;string($uint64)&gt;
-Response data:
-"items":
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-...</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A745DF-1837-42F6-8992-CE778D1E1DF4}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data5!B1</f>
-        <v>Checking function "List of devices" 
-Method: GET
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-page &lt;string($uint64)&gt;
-perPage &lt;string($uint64)&gt;
-Response data:
-"items":
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-...</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D9F5A3-0037-4891-A995-C66C14875AEC}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4190,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -4198,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -4227,15 +5327,15 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4243,19 +5343,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{61239FA4-3351-4008-8560-1229F35E33DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0A9A0-A9F3-481E-BCA0-E4D942B7B9DE}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026F7EB-3661-4398-B569-CBBAC1CE0450}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4268,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -4276,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
@@ -4300,12 +5410,12 @@
 "deviceId" &lt;string($uint64)&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -4321,176 +5431,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C91652-6C12-446B-860F-9C4BB824D468}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data1!B1</f>
-        <v>Checking function "Create a device" 
-Method: POST
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"deviceId" &lt;string($uint64)&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026F7EB-3661-4398-B569-CBBAC1CE0450}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="204.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="str">
-        <f>Data1!B1</f>
-        <v>Checking function "Create a device" 
-Method: POST
-Recource: /api/v1/devices
-Device data structure:
-"id" &lt;string($uint64)&gt;
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-"enteredAt" &lt;string($date-time)&gt;
-Request data:
-"platform" &lt;string&gt;
-"userId" &lt;string($uint64)&gt;
-Response data:
-"deviceId" &lt;string($uint64)&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{EE3C4D88-E081-4D4D-9D15-331612987246}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E06B392-8A74-457B-8E29-C907C9B1BC11}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4562,16 +5525,26 @@
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="31"/>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{05479276-E0B6-4829-8FD1-55C135A3050B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B3954B-2357-4222-8933-61E12065571D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4640,7 +5613,15 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{64D41C88-E860-45FB-A577-0802F9E2FC02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/homework/05-06-test-design/device-api-testsuite.xlsx
+++ b/homework/05-06-test-design/device-api-testsuite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Учитель\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB835D4-4053-4A7D-A0D7-0F54D499A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49405C42-25CF-4749-8F4C-B847C8092A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,10 @@
     <sheet name="Data5" sheetId="27" r:id="rId37"/>
     <sheet name="tc32" sheetId="39" r:id="rId38"/>
     <sheet name="tc33" sheetId="41" r:id="rId39"/>
+    <sheet name="tc34" sheetId="48" r:id="rId40"/>
+    <sheet name="tc35" sheetId="49" r:id="rId41"/>
+    <sheet name="tc36" sheetId="50" r:id="rId42"/>
+    <sheet name="tc37" sheetId="51" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +65,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="131">
   <si>
     <t>device-api</t>
   </si>
@@ -1479,6 +1485,100 @@
     <t>1) make a 'DELETE' request with "deviceId": &lt;any existing device ID&gt;
 1) make a 'PUT' request with correct data ('test values').
 2) take "success" from response</t>
+  </si>
+  <si>
+    <t>No repeats</t>
+  </si>
+  <si>
+    <t>Device order is correct</t>
+  </si>
+  <si>
+    <t>Empty page</t>
+  </si>
+  <si>
+    <t>"page": 2
+"perPage": 3</t>
+  </si>
+  <si>
+    <t>The number of devices isn't more than "perPage"</t>
+  </si>
+  <si>
+    <r>
+      <t>1) make a 'GET' request with correct data (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Medium"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'test values'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Medium"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>). 
+2) count the number of "items"</t>
+    </r>
+  </si>
+  <si>
+    <t>The amount is less than or equal to "perPage"</t>
+  </si>
+  <si>
+    <t>"page": 1
+"perPage": &lt;device count&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>1) make a 'GET' request with correct data (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Medium"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>'test values'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Medium"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>). 
+2) take "id" from "items" in range [2 : perPage]</t>
+    </r>
+  </si>
+  <si>
+    <t>The field "id" from items[i] matches "id" from items[i-1]</t>
+  </si>
+  <si>
+    <t>The field "id" from items[i] is less than "id" from items[i-1]</t>
+  </si>
+  <si>
+    <t>"page": 65535
+"perPage": 65535</t>
+  </si>
+  <si>
+    <t>The amount is zero</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1782,6 +1882,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2071,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2085,10 +2188,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2096,8 +2199,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2212,25 +2315,26 @@
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>13</v>
       </c>
@@ -2239,85 +2343,86 @@
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>14</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>16</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>17</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="21"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>18</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="21"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>19</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>20</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="20"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>21</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>22</v>
       </c>
@@ -2326,38 +2431,38 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>23</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>24</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>25</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>26</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="9"/>
@@ -2366,16 +2471,16 @@
       <c r="A33" s="28">
         <v>27</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>28</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="9"/>
@@ -2384,16 +2489,16 @@
       <c r="A35" s="28">
         <v>29</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>30</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="21"/>
@@ -2417,7 +2522,7 @@
       <c r="A39" s="28">
         <v>32</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="9"/>
@@ -2426,8 +2531,40 @@
       <c r="A40" s="28">
         <v>33</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="24" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="28">
+        <v>34</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="28">
+        <v>35</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="28">
+        <v>36</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="28">
+        <v>37</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2446,32 +2583,36 @@
     <hyperlink ref="B12" location="'tc8'!A1" display="Status code is correct [ Describe a device ]" xr:uid="{CDE676C0-A9C9-4D9F-BFFD-A3DD21D42E99}"/>
     <hyperlink ref="B13" location="'tc9'!A1" display="Response body structure is correct [ Describe a device ]" xr:uid="{502E23C2-59B5-471B-8185-D83511A17F03}"/>
     <hyperlink ref="B14" location="'tc10'!A1" display="Parameter ‘deviceId’ matchs to the 'id' from response" xr:uid="{BB7D1B23-3BEC-4E8F-8CB6-E00D5424EB14}"/>
-    <hyperlink ref="B16" location="'tc12'!A1" display="Status code is correct [ Remove a device ]" xr:uid="{62AEAC18-5F73-4F94-974F-E6247E812858}"/>
-    <hyperlink ref="B17" location="'tc13'!A1" display="Response body structure is correct [ Remove a device ]" xr:uid="{C83B633A-CCA7-4444-995C-B2E3342396E9}"/>
-    <hyperlink ref="B18" location="'tc14'!A1" display="Device can be removed from database" xr:uid="{D77192D4-2BAE-49D0-8095-C77D163414B9}"/>
-    <hyperlink ref="B19" location="'tc15'!A1" display="Response for positive testing returns &quot;found&quot;: true" xr:uid="{2D7A935C-49BB-4E19-9DD5-6DCD69FDDD49}"/>
-    <hyperlink ref="B20" location="'tc16'!A1" display="Unable to remove non-existent device (&quot;found&quot;: false)" xr:uid="{4210E1E9-7B5D-4FAE-9920-564F32BED1EB}"/>
-    <hyperlink ref="B21" location="'tc17'!A1" display="Number of devices don't changed after a failed delete attempt" xr:uid="{E6C1072C-A0AB-41FB-BE78-4BC7055DCD21}"/>
-    <hyperlink ref="B36" location="'tc25'!A1" display="Testing valid size of data type for the field &quot;platform&quot; [ Update a device ]" xr:uid="{B97BA3E5-4EA8-4D5E-96DE-4A73ABD7E6C1}"/>
-    <hyperlink ref="B37" location="'tc26'!A1" display="Testing valid size of data type for the field &quot;userId&quot; [ Update a device ]" xr:uid="{8B8367AB-F2C1-4056-8983-EBCB6F639819}"/>
-    <hyperlink ref="B26" location="'tc18'!A1" display="Status code is correct [ Update a device ]" xr:uid="{C28849F8-59CA-4CA9-8931-EC0D1E54D918}"/>
-    <hyperlink ref="B27" location="'tc19'!A1" display="Response body structure is correct [ Update a device ]" xr:uid="{282A3137-06EF-4CCC-AD9C-6E0D8D17D937}"/>
-    <hyperlink ref="B28" location="'tc20'!A1" display="Device can be changed in database" xr:uid="{C4265B72-9AB2-4758-BCD1-CD7F3D684BA7}"/>
-    <hyperlink ref="B29" location="'tc21'!A1" display="Response for positive testing  returns &quot;success&quot;: true" xr:uid="{D5E19ACD-DAAC-4A7D-A8A6-BE7B076605D2}"/>
-    <hyperlink ref="B30" location="'tc22'!A1" display="Unable to edit non-existent device (&quot;success&quot;: false)" xr:uid="{339AFFEA-83E9-4C0A-86A8-8FC1AB3D0B24}"/>
-    <hyperlink ref="B31" location="'tc23'!A1" display="‘enteredAt’ field has not changed" xr:uid="{3ACB11BB-ED07-4510-922C-2DACA5C4B89A}"/>
-    <hyperlink ref="B35" location="'tc24'!A1" display="Custom parameters ‘id’ and ‘enteredAt’ [ Update a device ]" xr:uid="{0DBC2AAB-0A6D-4429-9830-5337A4101D24}"/>
-    <hyperlink ref="B39" location="'tc27'!A1" display="Status code is correct [ List of devices ]" xr:uid="{5BD2B770-0168-4F3D-BD48-EC1138FF6F70}"/>
-    <hyperlink ref="B40" location="'tc27'!A1" display="Response body structure is correct [ List of devices ]" xr:uid="{513A2839-EB80-4177-9030-CA0633C97586}"/>
+    <hyperlink ref="B16" location="'tc11'!A1" display="Status code is correct [ Remove a device ]" xr:uid="{62AEAC18-5F73-4F94-974F-E6247E812858}"/>
+    <hyperlink ref="B17" location="'tc12'!A1" display="Response body structure is correct [ Remove a device ]" xr:uid="{C83B633A-CCA7-4444-995C-B2E3342396E9}"/>
+    <hyperlink ref="B18" location="'tc13'!A1" display="Device can be removed from database" xr:uid="{D77192D4-2BAE-49D0-8095-C77D163414B9}"/>
+    <hyperlink ref="B19" location="'tc14'!A1" display="Response for positive testing returns &quot;found&quot;: true" xr:uid="{2D7A935C-49BB-4E19-9DD5-6DCD69FDDD49}"/>
+    <hyperlink ref="B20" location="'tc15'!A1" display="Unable to remove non-existent device (&quot;found&quot;: false)" xr:uid="{4210E1E9-7B5D-4FAE-9920-564F32BED1EB}"/>
+    <hyperlink ref="B21" location="'tc16'!A1" display="Number of devices don't changed after a failed delete attempt" xr:uid="{E6C1072C-A0AB-41FB-BE78-4BC7055DCD21}"/>
+    <hyperlink ref="B36" location="'tc30'!A1" display="Testing valid size of data type for the field &quot;platform&quot; [ Update a device ]" xr:uid="{B97BA3E5-4EA8-4D5E-96DE-4A73ABD7E6C1}"/>
+    <hyperlink ref="B37" location="'tc31'!A1" display="Testing valid size of data type for the field &quot;userId&quot; [ Update a device ]" xr:uid="{8B8367AB-F2C1-4056-8983-EBCB6F639819}"/>
+    <hyperlink ref="B26" location="'tc20'!A1" display="Status code is correct [ Update a device ]" xr:uid="{C28849F8-59CA-4CA9-8931-EC0D1E54D918}"/>
+    <hyperlink ref="B27" location="'tc21'!A1" display="Response body structure is correct [ Update a device ]" xr:uid="{282A3137-06EF-4CCC-AD9C-6E0D8D17D937}"/>
+    <hyperlink ref="B28" location="'tc22'!A1" display="Device can be changed in database" xr:uid="{C4265B72-9AB2-4758-BCD1-CD7F3D684BA7}"/>
+    <hyperlink ref="B29" location="'tc23'!A1" display="Response for positive testing  returns &quot;success&quot;: true" xr:uid="{D5E19ACD-DAAC-4A7D-A8A6-BE7B076605D2}"/>
+    <hyperlink ref="B30" location="'tc24'!A1" display="Unable to edit non-existent device (&quot;success&quot;: false)" xr:uid="{339AFFEA-83E9-4C0A-86A8-8FC1AB3D0B24}"/>
+    <hyperlink ref="B31" location="'tc25'!A1" display="‘enteredAt’ field has not changed" xr:uid="{3ACB11BB-ED07-4510-922C-2DACA5C4B89A}"/>
+    <hyperlink ref="B35" location="'tc29'!A1" display="Custom parameters ‘id’ and ‘enteredAt’ [ Update a device ]" xr:uid="{0DBC2AAB-0A6D-4429-9830-5337A4101D24}"/>
+    <hyperlink ref="B39" location="'tc32'!A1" display="Status code is correct [ List of devices ]" xr:uid="{5BD2B770-0168-4F3D-BD48-EC1138FF6F70}"/>
+    <hyperlink ref="B40" location="'tc33'!A1" display="Response body structure is correct [ List of devices ]" xr:uid="{513A2839-EB80-4177-9030-CA0633C97586}"/>
     <hyperlink ref="B22" location="'tc17'!A1" display="Created device can be removed" xr:uid="{91861B4F-0E2A-4A56-A37E-A13724F44A20}"/>
     <hyperlink ref="B23" location="'tc18'!A1" display="Modified device can be removed" xr:uid="{7390A874-22B0-4D2E-B4F1-CE71298AE202}"/>
     <hyperlink ref="B24" location="'tc19'!A1" display="Double removal" xr:uid="{836A90A1-B59C-4C5D-B69E-E00B188E9324}"/>
     <hyperlink ref="B32" location="'tc26'!A1" display="Created device can be modified" xr:uid="{3A9F5E00-7AD6-4889-BC8E-E3F74FAD8C56}"/>
     <hyperlink ref="B33" location="'tc27'!A1" display="Double change" xr:uid="{62CAA88F-B385-4D7F-832F-605FDE686886}"/>
     <hyperlink ref="B34" location="'tc28'!A1" display="Removed device can't be modified" xr:uid="{B51FF07E-69E7-4C8E-855D-6EFEFFB720E6}"/>
+    <hyperlink ref="B41" location="'tc34'!A1" display=" The number of devices isn't more than &quot;perPage&quot;" xr:uid="{05994428-080D-420E-B311-994D449992FB}"/>
+    <hyperlink ref="B42" location="'tc35'!A1" display="No repeats" xr:uid="{0A9A076E-F76F-4856-9188-1A7AE9EA4567}"/>
+    <hyperlink ref="B43" location="'tc36'!A1" display="Device order is correct" xr:uid="{E5BCE731-CC58-4DF7-A86B-A26C6F65E0D6}"/>
+    <hyperlink ref="B44" location="'tc37'!A1" display="Empty page" xr:uid="{557D83F9-7FC1-4206-88F5-500A02A07DA9}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2999,7 +3140,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3314,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,7 +3557,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,7 +3644,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3591,7 +3732,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,7 +3854,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,7 +3942,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,7 +4030,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,7 +4118,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,7 +4206,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,7 +4403,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4491,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,7 +4579,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4526,7 +4667,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,7 +4755,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,7 +4843,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,7 +4931,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,7 +5054,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5006,7 +5147,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,12 +5323,384 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8893F5-9E58-4DB6-B790-11E44712D043}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{4FEE52E3-D8B9-409B-BF16-0DECD7F4CDA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A0EAB4-CFC2-4E6F-89C2-21746006CC1B}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{92AE00E6-6F11-4F58-9F70-827D509D7DC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E6AA9-5A5D-4CF6-AD11-7A7A7C91AE68}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{61E3C154-8CF6-4252-B7E4-D64CED9CB001}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F36F5B-E636-4437-9B7E-7B40CF744885}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="str">
+        <f>Data5!B1</f>
+        <v>Checking function "List of devices" 
+Method: GET
+Recource: /api/v1/devices
+Device data structure:
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+Request data:
+page &lt;string($uint64)&gt;
+perPage &lt;string($uint64)&gt;
+Response data:
+"items":
+"id" &lt;string($uint64)&gt;
+"platform" &lt;string&gt;
+"userId" &lt;string($uint64)&gt;
+"enteredAt" &lt;string($date-time)&gt;
+...</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="TestSuite!A1" display="Back to CaseList" xr:uid="{7ABB337D-985F-4453-883A-BE7FD528FCDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0A9A0-A9F3-481E-BCA0-E4D942B7B9DE}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
